--- a/Example Spreadsheets/2018.01.03 1 Oh Heck Score Sheet.xlsx
+++ b/Example Spreadsheets/2018.01.03 1 Oh Heck Score Sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianmcaulay/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianmcaulay/Programming/oh_heck_analysis/Example Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Score" sheetId="1" r:id="rId1"/>
@@ -489,16 +489,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -810,67 +810,67 @@
       </c>
     </row>
     <row r="4" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="21">
+      <c r="B4" s="22">
         <v>12</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="19">
+      <c r="C4" s="22"/>
+      <c r="D4" s="21">
         <f>IF(B4="","",IF(B4&gt;1,B4-1,""))</f>
         <v>11</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21">
         <f>IF(D4="","",IF(D4&gt;1,D4-1,""))</f>
         <v>10</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19">
+      <c r="G4" s="21"/>
+      <c r="H4" s="21">
         <f>IF(F4="","",IF(F4&gt;1,F4-1,""))</f>
         <v>9</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19">
+      <c r="I4" s="21"/>
+      <c r="J4" s="21">
         <f>IF(H4="","",IF(H4&gt;1,H4-1,""))</f>
         <v>8</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19">
+      <c r="K4" s="21"/>
+      <c r="L4" s="21">
         <f>IF(J4="","",IF(J4&gt;1,J4-1,""))</f>
         <v>7</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19">
+      <c r="M4" s="21"/>
+      <c r="N4" s="21">
         <f>IF(L4="","",IF(L4&gt;1,L4-1,""))</f>
         <v>6</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19">
+      <c r="O4" s="21"/>
+      <c r="P4" s="21">
         <f>IF(N4="","",IF(N4&gt;1,N4-1,""))</f>
         <v>5</v>
       </c>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19">
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21">
         <f>IF(P4="","",IF(P4&gt;1,P4-1,""))</f>
         <v>4</v>
       </c>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19">
+      <c r="S4" s="21"/>
+      <c r="T4" s="21">
         <f>IF(R4="","",IF(R4&gt;1,R4-1,""))</f>
         <v>3</v>
       </c>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19">
+      <c r="U4" s="21"/>
+      <c r="V4" s="21">
         <f>IF(T4="","",IF(T4&gt;1,T4-1,""))</f>
         <v>2</v>
       </c>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19">
+      <c r="W4" s="21"/>
+      <c r="X4" s="21">
         <f>IF(V4="","",IF(V4&gt;1,V4-1,""))</f>
         <v>1</v>
       </c>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
@@ -1797,11 +1797,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="X4:Y4"/>
     <mergeCell ref="Z4:AA4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
@@ -1818,6 +1813,11 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="X4:Y4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2653,7 +2653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2748,7 +2748,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
-      <c r="B4" s="22">
+      <c r="B4" s="19">
         <v>11</v>
       </c>
       <c r="C4" s="18" t="s">
